--- a/docs/燃尽工作图.xlsx
+++ b/docs/燃尽工作图.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayncp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jay_hom\ENT1113-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A42517-F82F-4731-850E-61CA66B5BF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106808C-6D17-46CC-83FE-8B235AB1C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{6CF4AE28-3A56-F447-A2D1-4538052A6232}"/>
   </bookViews>
@@ -336,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,29 +364,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CA247-301B-904D-A0B6-B6AC7F6D0B20}">
-  <dimension ref="A1:BR22"/>
+  <dimension ref="A1:BR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG16" sqref="AG16:AY21"/>
+      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -726,13 +723,13 @@
     <col min="10" max="11" width="2.875" style="3" customWidth="1"/>
     <col min="12" max="16" width="2.875" style="2" customWidth="1"/>
     <col min="17" max="18" width="2.875" style="3" customWidth="1"/>
-    <col min="19" max="22" width="2.875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="2.875" style="6" customWidth="1"/>
+    <col min="19" max="23" width="2.875" style="2" customWidth="1"/>
     <col min="24" max="25" width="2.875" style="3" customWidth="1"/>
     <col min="26" max="30" width="2.875" style="2" customWidth="1"/>
     <col min="31" max="32" width="2.875" style="3" customWidth="1"/>
     <col min="33" max="37" width="2.875" style="2" customWidth="1"/>
-    <col min="38" max="40" width="2.875" style="3" customWidth="1"/>
+    <col min="38" max="39" width="2.875" style="3" customWidth="1"/>
+    <col min="40" max="40" width="2.875" style="6" customWidth="1"/>
     <col min="41" max="44" width="2.875" style="2" customWidth="1"/>
     <col min="45" max="46" width="2.875" style="3" customWidth="1"/>
     <col min="47" max="51" width="2.875" style="2" customWidth="1"/>
@@ -745,28 +742,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -837,14 +834,14 @@
       <c r="BR1" s="1"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="7">
         <v>1</v>
       </c>
@@ -887,7 +884,7 @@
       <c r="V2" s="4">
         <v>14</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="4">
         <v>15</v>
       </c>
       <c r="X2" s="5">
@@ -938,7 +935,7 @@
       <c r="AM2" s="5">
         <v>31</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="6">
         <v>1</v>
       </c>
       <c r="AO2" s="4">
@@ -1033,539 +1030,528 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10">
         <v>12.8</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="16"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14">
+      <c r="D16" s="9"/>
+      <c r="E16" s="10">
         <v>12.25</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10">
         <v>12.25</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10">
         <v>12.25</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10">
         <v>12.25</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10">
         <v>12.25</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14">
+      <c r="D21" s="9"/>
+      <c r="E21" s="10">
         <v>12.25</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="16"/>
-      <c r="AP21" s="16"/>
-      <c r="AQ21" s="16"/>
-      <c r="AR21" s="16"/>
-      <c r="AS21" s="16"/>
-      <c r="AT21" s="16"/>
-      <c r="AU21" s="16"/>
-      <c r="AV21" s="16"/>
-      <c r="AW21" s="16"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="16"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/docs/燃尽工作图.xlsx
+++ b/docs/燃尽工作图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jay_hom\ENT1113-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaoyang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106808C-6D17-46CC-83FE-8B235AB1C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A68E7A-1F35-4788-A202-04ABC314430F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{6CF4AE28-3A56-F447-A2D1-4538052A6232}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6CF4AE28-3A56-F447-A2D1-4538052A6232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +209,14 @@
   </si>
   <si>
     <t>jy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,8 +240,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +296,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -331,12 +350,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,9 +407,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,43 +731,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CA247-301B-904D-A0B6-B6AC7F6D0B20}">
-  <dimension ref="A1:BR21"/>
+  <dimension ref="A1:BR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1:AE1048576"/>
+      <selection pane="bottomLeft" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15234375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="2.875" style="3" customWidth="1"/>
-    <col min="12" max="16" width="2.875" style="2" customWidth="1"/>
-    <col min="17" max="18" width="2.875" style="3" customWidth="1"/>
-    <col min="19" max="23" width="2.875" style="2" customWidth="1"/>
-    <col min="24" max="25" width="2.875" style="3" customWidth="1"/>
-    <col min="26" max="30" width="2.875" style="2" customWidth="1"/>
-    <col min="31" max="32" width="2.875" style="3" customWidth="1"/>
-    <col min="33" max="37" width="2.875" style="2" customWidth="1"/>
-    <col min="38" max="39" width="2.875" style="3" customWidth="1"/>
-    <col min="40" max="40" width="2.875" style="6" customWidth="1"/>
-    <col min="41" max="44" width="2.875" style="2" customWidth="1"/>
-    <col min="45" max="46" width="2.875" style="3" customWidth="1"/>
-    <col min="47" max="51" width="2.875" style="2" customWidth="1"/>
-    <col min="52" max="53" width="2.875" style="3" customWidth="1"/>
-    <col min="54" max="58" width="2.875" style="2" customWidth="1"/>
-    <col min="59" max="60" width="2.875" style="3" customWidth="1"/>
-    <col min="61" max="65" width="2.875" style="2" customWidth="1"/>
-    <col min="66" max="67" width="2.875" style="3" customWidth="1"/>
-    <col min="68" max="70" width="2.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.4609375" customWidth="1"/>
+    <col min="6" max="7" width="10.84375" customWidth="1"/>
+    <col min="9" max="9" width="2.84375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="2.84375" style="3" customWidth="1"/>
+    <col min="12" max="16" width="2.84375" style="2" customWidth="1"/>
+    <col min="17" max="18" width="2.84375" style="3" customWidth="1"/>
+    <col min="19" max="23" width="2.84375" style="2" customWidth="1"/>
+    <col min="24" max="25" width="2.84375" style="3" customWidth="1"/>
+    <col min="26" max="30" width="2.84375" style="2" customWidth="1"/>
+    <col min="31" max="32" width="2.84375" style="3" customWidth="1"/>
+    <col min="33" max="37" width="2.84375" style="2" customWidth="1"/>
+    <col min="38" max="39" width="2.84375" style="3" customWidth="1"/>
+    <col min="40" max="40" width="2.84375" style="6" customWidth="1"/>
+    <col min="41" max="44" width="2.84375" style="2" customWidth="1"/>
+    <col min="45" max="46" width="2.84375" style="3" customWidth="1"/>
+    <col min="47" max="51" width="2.84375" style="2" customWidth="1"/>
+    <col min="52" max="53" width="2.84375" style="3" customWidth="1"/>
+    <col min="54" max="58" width="2.84375" style="2" customWidth="1"/>
+    <col min="59" max="60" width="2.84375" style="3" customWidth="1"/>
+    <col min="61" max="65" width="2.84375" style="2" customWidth="1"/>
+    <col min="66" max="67" width="2.84375" style="3" customWidth="1"/>
+    <col min="68" max="70" width="2.84375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -833,7 +859,7 @@
       <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -1029,7 +1055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1098,7 @@
       <c r="AV3" s="12"/>
       <c r="AW3" s="12"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
         <v>14</v>
@@ -1091,14 +1117,14 @@
       <c r="H4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1108,7 +1134,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -1130,7 +1156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -1149,11 +1175,11 @@
       <c r="H7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
       <c r="AD7" s="12"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>24</v>
@@ -1176,7 +1202,7 @@
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1189,7 +1215,7 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1246,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
@@ -1245,7 +1271,7 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>18</v>
@@ -1267,7 +1293,7 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
@@ -1289,7 +1315,7 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>20</v>
@@ -1313,60 +1339,50 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="H15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
-        <v>12.25</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -1380,7 +1396,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
@@ -1401,10 +1417,10 @@
       <c r="AX17" s="12"/>
       <c r="AY17" s="12"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
@@ -1418,7 +1434,7 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG18" s="12"/>
       <c r="AH18" s="12"/>
@@ -1439,10 +1455,10 @@
       <c r="AX18" s="12"/>
       <c r="AY18" s="12"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
@@ -1456,7 +1472,7 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
@@ -1477,10 +1493,10 @@
       <c r="AX19" s="12"/>
       <c r="AY19" s="12"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
@@ -1494,7 +1510,7 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AG20" s="12"/>
       <c r="AH20" s="12"/>
@@ -1515,10 +1531,10 @@
       <c r="AX20" s="12"/>
       <c r="AY20" s="12"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>9</v>
@@ -1553,6 +1569,44 @@
       <c r="AX21" s="12"/>
       <c r="AY21" s="12"/>
     </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10">
+        <v>12.25</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H1:H2"/>

--- a/docs/燃尽工作图.xlsx
+++ b/docs/燃尽工作图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaoyang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeeeTX\Desktop\ENT1113-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A68E7A-1F35-4788-A202-04ABC314430F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A2F34-899D-4CE6-B104-855346B23BA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6CF4AE28-3A56-F447-A2D1-4538052A6232}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="13896" xr2:uid="{6CF4AE28-3A56-F447-A2D1-4538052A6232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -224,18 +215,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,7 +234,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -398,6 +389,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,9 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,63 +724,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CA247-301B-904D-A0B6-B6AC7F6D0B20}">
   <dimension ref="A1:BR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC7" sqref="AC7"/>
+      <selection pane="bottomLeft" activeCell="AD14" sqref="AD14:AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.15234375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="17.4609375" customWidth="1"/>
-    <col min="6" max="7" width="10.84375" customWidth="1"/>
-    <col min="9" max="9" width="2.84375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="2.84375" style="3" customWidth="1"/>
-    <col min="12" max="16" width="2.84375" style="2" customWidth="1"/>
-    <col min="17" max="18" width="2.84375" style="3" customWidth="1"/>
-    <col min="19" max="23" width="2.84375" style="2" customWidth="1"/>
-    <col min="24" max="25" width="2.84375" style="3" customWidth="1"/>
-    <col min="26" max="30" width="2.84375" style="2" customWidth="1"/>
-    <col min="31" max="32" width="2.84375" style="3" customWidth="1"/>
-    <col min="33" max="37" width="2.84375" style="2" customWidth="1"/>
-    <col min="38" max="39" width="2.84375" style="3" customWidth="1"/>
-    <col min="40" max="40" width="2.84375" style="6" customWidth="1"/>
-    <col min="41" max="44" width="2.84375" style="2" customWidth="1"/>
-    <col min="45" max="46" width="2.84375" style="3" customWidth="1"/>
-    <col min="47" max="51" width="2.84375" style="2" customWidth="1"/>
-    <col min="52" max="53" width="2.84375" style="3" customWidth="1"/>
-    <col min="54" max="58" width="2.84375" style="2" customWidth="1"/>
-    <col min="59" max="60" width="2.84375" style="3" customWidth="1"/>
-    <col min="61" max="65" width="2.84375" style="2" customWidth="1"/>
-    <col min="66" max="67" width="2.84375" style="3" customWidth="1"/>
-    <col min="68" max="70" width="2.84375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="10.796875" customWidth="1"/>
+    <col min="9" max="9" width="2.796875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="2.796875" style="3" customWidth="1"/>
+    <col min="12" max="16" width="2.796875" style="2" customWidth="1"/>
+    <col min="17" max="18" width="2.796875" style="3" customWidth="1"/>
+    <col min="19" max="23" width="2.796875" style="2" customWidth="1"/>
+    <col min="24" max="25" width="2.796875" style="3" customWidth="1"/>
+    <col min="26" max="30" width="2.796875" style="2" customWidth="1"/>
+    <col min="31" max="32" width="2.796875" style="3" customWidth="1"/>
+    <col min="33" max="37" width="2.796875" style="2" customWidth="1"/>
+    <col min="38" max="39" width="2.796875" style="3" customWidth="1"/>
+    <col min="40" max="40" width="2.796875" style="6" customWidth="1"/>
+    <col min="41" max="44" width="2.796875" style="2" customWidth="1"/>
+    <col min="45" max="46" width="2.796875" style="3" customWidth="1"/>
+    <col min="47" max="51" width="2.796875" style="2" customWidth="1"/>
+    <col min="52" max="53" width="2.796875" style="3" customWidth="1"/>
+    <col min="54" max="58" width="2.796875" style="2" customWidth="1"/>
+    <col min="59" max="60" width="2.796875" style="3" customWidth="1"/>
+    <col min="61" max="65" width="2.796875" style="2" customWidth="1"/>
+    <col min="66" max="67" width="2.796875" style="3" customWidth="1"/>
+    <col min="68" max="70" width="2.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:70" ht="34.049999999999997" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -859,15 +850,15 @@
       <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13"/>
+    <row r="2" spans="1:70">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="7">
         <v>1</v>
       </c>
@@ -1055,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:70">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1098,7 +1089,7 @@
       <c r="AV3" s="12"/>
       <c r="AW3" s="12"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:70">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
         <v>14</v>
@@ -1119,12 +1110,12 @@
       </c>
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:70">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1134,7 +1125,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:70">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:70">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -1177,9 +1168,9 @@
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="12"/>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="1:70">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>24</v>
@@ -1198,11 +1189,11 @@
       <c r="H8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
       <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:70">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1215,7 +1206,7 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:70">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1237,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:70">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
@@ -1271,7 +1262,7 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:70">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>18</v>
@@ -1293,7 +1284,7 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:70">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
@@ -1315,7 +1306,7 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:70">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>20</v>
@@ -1334,12 +1325,12 @@
       <c r="H14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:70">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>44</v>
@@ -1358,12 +1349,12 @@
       <c r="H15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:70">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1372,12 +1363,12 @@
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+    </row>
+    <row r="17" spans="1:51">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1408,7 @@
       <c r="AX17" s="12"/>
       <c r="AY17" s="12"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -1455,7 +1446,7 @@
       <c r="AX18" s="12"/>
       <c r="AY18" s="12"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -1493,7 +1484,7 @@
       <c r="AX19" s="12"/>
       <c r="AY19" s="12"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -1531,7 +1522,7 @@
       <c r="AX20" s="12"/>
       <c r="AY20" s="12"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>31</v>
@@ -1569,7 +1560,7 @@
       <c r="AX21" s="12"/>
       <c r="AY21" s="12"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>30</v>
